--- a/DSA2 Final Grading Guide.xlsx
+++ b/DSA2 Final Grading Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dynam\OneDrive\Documents\College\Semester 5\OpenGLFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D916701-AE3C-476E-B7AA-E8D4BA61464A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF43E2-B330-4334-B0F8-5F26D4C94EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Students</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>Two projects, cool stuff</t>
+  </si>
+  <si>
+    <t>Soundtrack is the medley of Galaga from Smash Brothers Ultimate (in Galaga)</t>
+  </si>
+  <si>
+    <t>A few audio effects from galaga included</t>
+  </si>
+  <si>
+    <t>shooting, enemy descent, and bullets killing enemies</t>
+  </si>
+  <si>
+    <t>All assets being used are automatically scaled to better fit the screen</t>
+  </si>
+  <si>
+    <t>The bullets are being sheared to be like the game (straight bullets)</t>
+  </si>
+  <si>
+    <t>Implemented broad phase collision detection using BSP tree (or at least what I imagine it to be for galaga)</t>
+  </si>
+  <si>
+    <t>Essentially, 3 lists of bools getting down to very specific numbers of where gameobjects are</t>
   </si>
 </sst>
 </file>
@@ -799,6 +820,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -827,84 +926,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1212,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,17 +1796,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1794,46 +1815,46 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="45" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56">
         <f t="shared" ref="H2:H3" si="0">$F$59-$F$45+SUM($F$6:$F$21)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1849,16 +1870,16 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1882,16 +1903,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1926,16 +1947,16 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
@@ -1965,21 +1986,27 @@
       <c r="E12" s="9">
         <v>40</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -2014,16 +2041,16 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
@@ -2035,8 +2062,12 @@
       <c r="E17" s="9">
         <v>5</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,8 +2080,12 @@
       <c r="E18" s="9">
         <v>5</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="9">
+        <v>5</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,47 +2135,47 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="11">
         <f>SUM(E2:E21)</f>
         <v>150</v>
       </c>
       <c r="F22" s="12">
         <f>SUM(F2:F21)</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="29.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -2167,16 +2202,16 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
@@ -2239,16 +2274,16 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
@@ -2323,16 +2358,16 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
@@ -2385,12 +2420,12 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="29">
         <f>SUM(E25:E44)</f>
         <v>0</v>
@@ -2403,16 +2438,16 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="58"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,9 +2460,15 @@
       <c r="E47" s="9">
         <v>5</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="F47" s="9">
+        <v>5</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
@@ -2439,8 +2480,12 @@
       <c r="E48" s="9">
         <v>5</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="9">
+        <v>5</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,37 +2627,37 @@
       <c r="H58" s="19"/>
     </row>
     <row r="59" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="27">
         <f>SUM(E47:E58)</f>
         <v>175</v>
       </c>
       <c r="F59" s="26">
         <f>SUM(F47:F58)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="25">
         <f>E59-E45+SUM(E6:E21)</f>
         <v>325</v>
       </c>
       <c r="F60" s="25">
         <f>$F$59-$F$45+SUM($F$6:$F$21)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3192,35 +3237,35 @@
     <row r="143" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
@@ -3236,35 +3281,35 @@
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DSA2 Final Grading Guide.xlsx
+++ b/DSA2 Final Grading Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dynam\OneDrive\Documents\College\Semester 5\OpenGLFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF43E2-B330-4334-B0F8-5F26D4C94EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F656A71-5FB4-4A40-BA6A-E7346C67A7C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Students</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Coehl Gleckner</t>
   </si>
   <si>
-    <t>Frat Hoe Turbo</t>
-  </si>
-  <si>
     <t>Created both Pong and Galaga with good amounts of gameplay functionality in place</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Galaga uses integration for movement</t>
   </si>
   <si>
-    <t>Two projects, cool stuff</t>
-  </si>
-  <si>
     <t>Soundtrack is the medley of Galaga from Smash Brothers Ultimate (in Galaga)</t>
   </si>
   <si>
@@ -269,6 +263,26 @@
   </si>
   <si>
     <t>Essentially, 3 lists of bools getting down to very specific numbers of where gameobjects are</t>
+  </si>
+  <si>
+    <t>Both point to point and AABB collision checking featured in Galaga 
+(used to find narrow collision checking in multiple locations)</t>
+  </si>
+  <si>
+    <t>Cool background effect, reminscinst of actual, will probably 
+continue work on this project to become a 
+polished portfolio piece
+galaga</t>
+  </si>
+  <si>
+    <t>Deals with player running into walls</t>
+  </si>
+  <si>
+    <t>Pat Hosman</t>
+  </si>
+  <si>
+    <t>Two projects, cool stuff, good portfolio stuff if 
+continued to full gameplay functionality</t>
   </si>
 </sst>
 </file>
@@ -725,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,113 +834,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,7 +1229,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,65 +1813,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50">
+        <f t="shared" ref="H2:H3" si="0">$F$59-$F$45+SUM($F$6:$F$21)</f>
+        <v>155</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56">
-        <f t="shared" ref="H2:H3" si="0">$F$59-$F$45+SUM($F$6:$F$21)</f>
-        <v>120</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1870,16 +1887,16 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1896,23 +1913,23 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1928,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -1947,16 +1964,16 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
@@ -1972,7 +1989,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1990,23 +2007,23 @@
         <v>40</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -2036,21 +2053,21 @@
         <v>5</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
@@ -2066,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -2084,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -2102,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -2135,12 +2152,12 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="11">
         <f>SUM(E2:E21)</f>
         <v>150</v>
@@ -2153,29 +2170,29 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="29.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
@@ -2202,16 +2219,16 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
@@ -2274,16 +2291,16 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
@@ -2358,16 +2375,16 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
@@ -2420,12 +2437,12 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="29">
         <f>SUM(E25:E44)</f>
         <v>0</v>
@@ -2438,16 +2455,16 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="52"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="55"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H48" s="10"/>
     </row>
@@ -2512,8 +2529,12 @@
       <c r="E50" s="9">
         <v>25</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
+      <c r="F50" s="9">
+        <v>5</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,50 +2635,58 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="E58" s="21">
+        <v>30</v>
+      </c>
+      <c r="F58" s="24">
+        <v>30</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="70" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="27">
         <f>SUM(E47:E58)</f>
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F59" s="26">
         <f>SUM(F47:F58)</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="25">
         <f>E59-E45+SUM(E6:E21)</f>
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F60" s="25">
         <f>$F$59-$F$45+SUM($F$6:$F$21)</f>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3237,35 +3266,34 @@
     <row r="143" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:D56"/>
@@ -3282,34 +3310,35 @@
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DSA2 Final Grading Guide.xlsx
+++ b/DSA2 Final Grading Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dynam\OneDrive\Documents\College\Semester 5\OpenGLFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F656A71-5FB4-4A40-BA6A-E7346C67A7C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68EAD4-4D2E-4C99-9B7B-4A7205997A22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Students</t>
   </si>
@@ -283,6 +283,27 @@
   <si>
     <t>Two projects, cool stuff, good portfolio stuff if 
 continued to full gameplay functionality</t>
+  </si>
+  <si>
+    <t>Sending colors in</t>
+  </si>
+  <si>
+    <t>Use many of the functions of opengl, including the ability to show opacity</t>
+  </si>
+  <si>
+    <t>Controls are there</t>
+  </si>
+  <si>
+    <t>Just like original game</t>
+  </si>
+  <si>
+    <t>Music from : https://www.youtube.com/watch?v=LXi5iqXAcNw&amp;t=20s</t>
+  </si>
+  <si>
+    <t>No sources used, except for some free to use sound effects found online, music is from a youtube video found below</t>
+  </si>
+  <si>
+    <t>Link to git: https://github.com/dynamitenoodle/OpenGLFinalProject</t>
   </si>
 </sst>
 </file>
@@ -825,6 +846,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -834,6 +867,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,87 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,17 +1834,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1832,16 +1853,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="48" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57">
         <f t="shared" ref="H2:H3" si="0">$F$59-$F$45+SUM($F$6:$F$21)</f>
         <v>155</v>
       </c>
@@ -1850,28 +1871,30 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="48" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1887,25 +1910,25 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="6">
         <v>15</v>
       </c>
@@ -1920,24 +1943,24 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="9">
         <v>10</v>
       </c>
@@ -1950,12 +1973,12 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="9">
         <v>10</v>
       </c>
@@ -1964,24 +1987,24 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="9">
         <v>25</v>
       </c>
@@ -1994,12 +2017,12 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="9">
         <v>40</v>
       </c>
@@ -2014,24 +2037,24 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="9">
         <v>5</v>
       </c>
@@ -2040,12 +2063,12 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="9">
         <v>5</v>
       </c>
@@ -2058,24 +2081,24 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="9">
         <v>5</v>
       </c>
@@ -2088,12 +2111,12 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="9">
         <v>5</v>
       </c>
@@ -2106,12 +2129,12 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="9">
         <v>5</v>
       </c>
@@ -2124,12 +2147,12 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="9">
         <v>10</v>
       </c>
@@ -2138,12 +2161,12 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="9">
         <v>15</v>
       </c>
@@ -2152,12 +2175,12 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="11">
         <f>SUM(E2:E21)</f>
         <v>150</v>
@@ -2170,265 +2193,277 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="29.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
       <c r="G44" s="23"/>
@@ -2437,12 +2472,12 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="29">
         <f>SUM(E25:E44)</f>
         <v>0</v>
@@ -2455,25 +2490,25 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="9">
         <v>5</v>
       </c>
@@ -2488,12 +2523,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="9">
         <v>5</v>
       </c>
@@ -2506,12 +2541,12 @@
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="9">
         <v>10</v>
       </c>
@@ -2520,12 +2555,12 @@
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="9">
         <v>25</v>
       </c>
@@ -2538,12 +2573,12 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="9">
         <v>20</v>
       </c>
@@ -2552,12 +2587,12 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="9">
         <v>10</v>
       </c>
@@ -2566,12 +2601,12 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="9">
         <v>30</v>
       </c>
@@ -2580,12 +2615,12 @@
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="9">
         <v>30</v>
       </c>
@@ -2594,12 +2629,12 @@
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="9">
         <v>20</v>
       </c>
@@ -2608,12 +2643,12 @@
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="9">
         <v>10</v>
       </c>
@@ -2622,12 +2657,12 @@
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="9">
         <v>10</v>
       </c>
@@ -2636,32 +2671,32 @@
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="21">
         <v>30</v>
       </c>
       <c r="F58" s="24">
         <v>30</v>
       </c>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="70" t="s">
+      <c r="H58" s="31" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="27">
         <f>SUM(E47:E58)</f>
         <v>205</v>
@@ -2674,12 +2709,12 @@
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="25">
         <f>E59-E45+SUM(E6:E21)</f>
         <v>355</v>
@@ -3266,13 +3301,56 @@
     <row r="143" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
@@ -3289,56 +3367,13 @@
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
